--- a/pricetracking_auto.xlsx
+++ b/pricetracking_auto.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>839432</v>
+        <v>839430</v>
       </c>
       <c r="D2" t="n">
-        <v>699</v>
+        <v>349</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -518,7 +518,7 @@
         <v>839431</v>
       </c>
       <c r="D3" t="n">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>

--- a/pricetracking_auto.xlsx
+++ b/pricetracking_auto.xlsx
@@ -537,12 +537,8 @@
           <t>COCA-COLA 2,25L</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>839434</v>
-      </c>
-      <c r="D4" t="n">
-        <v>879</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>

--- a/pricetracking_auto.xlsx
+++ b/pricetracking_auto.xlsx
@@ -451,32 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRICE</t>
+          <t>PRICE (W)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PROMO PRICE</t>
+          <t>PROMO PRICE (W)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PRICE (LAST WEEK)</t>
+          <t>PRICE (W-1)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>PROMO PRICE (LAST WEEK)</t>
+          <t>PROMO PRICE (W-1)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PRICE (WEEK BEFORE)</t>
+          <t>PRICE (W-2)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PROMO PRICE (WEEK BEFORE)</t>
+          <t>PROMO PRICE (W-2)</t>
         </is>
       </c>
     </row>
@@ -494,9 +494,7 @@
       <c r="C2" t="n">
         <v>839430</v>
       </c>
-      <c r="D2" t="n">
-        <v>349</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -517,9 +515,7 @@
       <c r="C3" t="n">
         <v>839431</v>
       </c>
-      <c r="D3" t="n">
-        <v>419</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -540,9 +536,7 @@
       <c r="C4" t="n">
         <v>839434</v>
       </c>
-      <c r="D4" t="n">
-        <v>879</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -563,9 +557,7 @@
       <c r="C5" t="n">
         <v>839430</v>
       </c>
-      <c r="D5" t="n">
-        <v>349</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -586,9 +578,7 @@
       <c r="C6" t="n">
         <v>839433</v>
       </c>
-      <c r="D6" t="n">
-        <v>459</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>

--- a/pricetracking_auto.xlsx
+++ b/pricetracking_auto.xlsx
@@ -1,37 +1,306 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\PycharmProjects\CC_PriceTracking_2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF164313-9540-4D61-A44A-56D7DD87646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="auto" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="auto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
+  <si>
+    <t>CPL</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>PRICE (W)</t>
+  </si>
+  <si>
+    <t>PROMO PRICE (W)</t>
+  </si>
+  <si>
+    <t>PRICE (W-1)</t>
+  </si>
+  <si>
+    <t>PROMO PRICE (W-1)</t>
+  </si>
+  <si>
+    <t>PRICE (W-2)</t>
+  </si>
+  <si>
+    <t>PROMO PRICE (W-2)</t>
+  </si>
+  <si>
+    <t>Auchan</t>
+  </si>
+  <si>
+    <t>Coca-Cola 1,75l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 1,5l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 2x1,75l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 4x1,75l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 2,25l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 0,5l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 0,3l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 0,33l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 4x0,33l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 1l</t>
+  </si>
+  <si>
+    <t>Coca-Cola 6x0,33l</t>
+  </si>
+  <si>
+    <t>Kinley 1,5l</t>
+  </si>
+  <si>
+    <t>Pepsi 2l</t>
+  </si>
+  <si>
+    <t>Pepsi 1,75l</t>
+  </si>
+  <si>
+    <t>Pepsi 1,5l</t>
+  </si>
+  <si>
+    <t>Schweppes 1,5l</t>
+  </si>
+  <si>
+    <t>Pepsi 2,25l</t>
+  </si>
+  <si>
+    <t>Pepsi 0,5l</t>
+  </si>
+  <si>
+    <t>Pepsi 0,33l</t>
+  </si>
+  <si>
+    <t>Pepsi 1l</t>
+  </si>
+  <si>
+    <t>XIXO Cola kólaízű szénsavas üdítőital cukorral és édesítőszerrel 250 ml</t>
+  </si>
+  <si>
+    <t>Márka 0.33l</t>
+  </si>
+  <si>
+    <t>Márka Limonádé szeder ízű energiamentes szénsavas üdítőital édesítőszerekkel 1,5 l</t>
+  </si>
+  <si>
+    <t>Márka cola ízű szénsavas üdítőital, cukorral és édesítőszerekkel 2 l</t>
+  </si>
+  <si>
+    <t>Márka cola ízű energiaszegény szénsavas üdítőital, cukorral és édesítőszerekkel 2,5 l</t>
+  </si>
+  <si>
+    <t>Queen 2,5l</t>
+  </si>
+  <si>
+    <t>Gyöngy 2l</t>
+  </si>
+  <si>
+    <t>Apenta málna üdítőital szénsavas ásványvízzel 1,5 l</t>
+  </si>
+  <si>
+    <t>Cappy Őszibarack mix gyümölcsital őszibarackpüré és almalé sűrítményből 330 ml</t>
+  </si>
+  <si>
+    <t>Cappy 100% narancslé 1 l</t>
+  </si>
+  <si>
+    <t>Cappy Őszibarack mix gyümölcsital őszibarackpüré és almalé sűrítményből 1 l</t>
+  </si>
+  <si>
+    <t>Cappy LN 1l</t>
+  </si>
+  <si>
+    <t>Cappy Ice Fruit Multivitamin szénsavmentes vegyesgyümölcs ital mangosztán ízesítéssel 500 ml</t>
+  </si>
+  <si>
+    <t>Cappy Ice Fruit Multivitamin szénsavmentes vegyesgyümölcs ital mangosztán ízesítéssel 1,5 l</t>
+  </si>
+  <si>
+    <t>Sió Natura 100% narancslé 1 l</t>
+  </si>
+  <si>
+    <t>Sió Natura rostos őszibarack nektár 1 l</t>
+  </si>
+  <si>
+    <t>Sió Találkozások rostos őszibarack-narancs gyümölcsital 1 l</t>
+  </si>
+  <si>
+    <t>Hohes C Classic narancs gyümölcslé gyümölcshússal, acerolával 1 l</t>
+  </si>
+  <si>
+    <t>Hohes C Classic 100% multivitamin vegyes gyümölcslé 1 l</t>
+  </si>
+  <si>
+    <t>Hey-Ho alma ital cukorral és édesítőszerrel 1 l</t>
+  </si>
+  <si>
+    <t>Rauch Happy Day 100% narancslé narancslésűrítményből 1 l</t>
+  </si>
+  <si>
+    <t>Rauch Happy Day Mild 100% multivitamin vegyes gyümölcslé sűrítményből és pürésűrítményből 1 l</t>
+  </si>
+  <si>
+    <t>Rauch Bravo PET 0.5l</t>
+  </si>
+  <si>
+    <t>Rauch Bravo PET 1.5l</t>
+  </si>
+  <si>
+    <t>Olympos trópusi vegyes gyümölcs üdítőital 1,5 l</t>
+  </si>
+  <si>
+    <t>NaturAqua 1,5l</t>
+  </si>
+  <si>
+    <t>NaturAqua 0,5l</t>
+  </si>
+  <si>
+    <t>NaturAqua 1l</t>
+  </si>
+  <si>
+    <t>Szentkirályi 0,5l</t>
+  </si>
+  <si>
+    <t>Szentkirályi 1l</t>
+  </si>
+  <si>
+    <t>Szentkirályi 1,5l</t>
+  </si>
+  <si>
+    <t>Theodora 1,5l</t>
+  </si>
+  <si>
+    <t>Nestlé Aquarel 1,5l</t>
+  </si>
+  <si>
+    <t>Mizse 1,5l</t>
+  </si>
+  <si>
+    <t>NaturAqua Emotion Zero szeder-lime ízesítéssel 1,5 l</t>
+  </si>
+  <si>
+    <t>NaturAqua Emotion Zero szeder-lime ízesítéssel 500 ml</t>
+  </si>
+  <si>
+    <t>Jana citrom és limetta ízű, energiaszegény, szénsavmentes üdítőital 0,5 l</t>
+  </si>
+  <si>
+    <t>Jana citrom és limetta ízű, energiaszegény, szénsavmentes üdítőital 1,5 l</t>
+  </si>
+  <si>
+    <t>FUZETEA citrom-citromfű ízesítéssel 1,5 l</t>
+  </si>
+  <si>
+    <t>FUZETEA citrom-citromfű ízesítéssel 500 ml</t>
+  </si>
+  <si>
+    <t>Nestea citrom ízű tea üdítőital, cukrokkal és édesítőszerrel 1,5 l</t>
+  </si>
+  <si>
+    <t>Nestea citrom ízű tea üdítőital, cukrokkal és édesítőszerrel 0,5 l</t>
+  </si>
+  <si>
+    <t>Lipton Ice Tea őszibarack ízű szénsavmentes üdítőital cukorral és édesítőszerrel 500 ml</t>
+  </si>
+  <si>
+    <t>Lipton Ice Tea őszibarack ízű szénsavmentes üdítőital cukorral és édesítőszerrel 1,5 l</t>
+  </si>
+  <si>
+    <t>Rauch MyTea Peach ice tea őszibarackos üdítőital fekete teából 0,5 l</t>
+  </si>
+  <si>
+    <t>Rauch MyTea Peach ice tea őszibarackos üdítőital fekete teából 1,5 l</t>
+  </si>
+  <si>
+    <t>XIXO Ice Tea őszibarackos fekete tea 250 ml</t>
+  </si>
+  <si>
+    <t>XIXO Ice Tea őszibarackos fekete tea 1,5 l</t>
+  </si>
+  <si>
+    <t>Powerade 0,5l</t>
+  </si>
+  <si>
+    <t>PRIME</t>
+  </si>
+  <si>
+    <t>Burn 0,25l</t>
+  </si>
+  <si>
+    <t>Monster 0,5l</t>
+  </si>
+  <si>
+    <t>Hell 0,25l</t>
+  </si>
+  <si>
+    <t>RedBull 4x0,25l</t>
+  </si>
+  <si>
+    <t>RedBull 0,25l</t>
+  </si>
+  <si>
+    <t>Kinley 1l</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +315,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,176 +639,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="81.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CPL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>UID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PRICE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PROMO PRICE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PRICE (LAST WEEK)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PROMO PRICE (LAST WEEK)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PRICE (WEEK BEFORE)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PROMO PRICE (WEEK BEFORE)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Auchan</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>COCA-COLA 1,75L</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>839432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>839435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>839437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>839434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>839431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>838698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
         <v>839430</v>
       </c>
-      <c r="D2" t="n">
-        <v>349</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Auchan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>COCA-COLA 0,5L</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>839431</v>
-      </c>
-      <c r="D3" t="n">
-        <v>419</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Auchan</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>COCA-COLA 2,25L</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Auchan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>COCA-COLA 0,33L</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>839430</v>
-      </c>
-      <c r="D5" t="n">
-        <v>349</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Auchan</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>COCA-COLA 1L</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>839436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>839433</v>
       </c>
-      <c r="D6" t="n">
-        <v>459</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>838582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>836241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>836239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>836317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>836238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>836237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>836240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>838199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>853101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>853098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>850663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>853097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>857856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>839428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>839406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>839410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pricetracking_auto.xlsx
+++ b/pricetracking_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,10 +498,16 @@
         <v>699</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>699</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>699</v>
+      </c>
+      <c r="I2" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -540,9 +546,13 @@
         <v>1349</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1349</v>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1349</v>
+      </c>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -563,9 +573,13 @@
         <v>2519</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>2519</v>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>2519</v>
+      </c>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -586,9 +600,15 @@
         <v>879</v>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>879</v>
+      </c>
+      <c r="G6" t="n">
+        <v>749</v>
+      </c>
+      <c r="H6" t="n">
+        <v>879</v>
+      </c>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -609,9 +629,15 @@
         <v>419</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>419</v>
+      </c>
+      <c r="G7" t="n">
+        <v>389</v>
+      </c>
+      <c r="H7" t="n">
+        <v>419</v>
+      </c>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -629,12 +655,16 @@
         <v>838698</v>
       </c>
       <c r="D8" t="n">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>279</v>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>279</v>
+      </c>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -652,12 +682,16 @@
         <v>839430</v>
       </c>
       <c r="D9" t="n">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>389</v>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>359</v>
+      </c>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -675,12 +709,16 @@
         <v>839436</v>
       </c>
       <c r="D10" t="n">
-        <v>1049</v>
+        <v>999</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>999</v>
+      </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>999</v>
+      </c>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -701,9 +739,13 @@
         <v>459</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>459</v>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>459</v>
+      </c>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -762,10 +804,18 @@
         <v>699</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>699</v>
+      </c>
+      <c r="G14" t="n">
+        <v>649</v>
+      </c>
+      <c r="H14" t="n">
+        <v>699</v>
+      </c>
+      <c r="I14" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -784,11 +834,19 @@
       <c r="D15" t="n">
         <v>679</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>589</v>
+      </c>
+      <c r="F15" t="n">
+        <v>679</v>
+      </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>679</v>
+      </c>
+      <c r="I15" t="n">
+        <v>589</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -824,12 +882,18 @@
         <v>836239</v>
       </c>
       <c r="D17" t="n">
+        <v>599</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
         <v>479</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>469</v>
+      </c>
+      <c r="H17" t="n">
+        <v>479</v>
+      </c>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -847,12 +911,16 @@
         <v>836317</v>
       </c>
       <c r="D18" t="n">
+        <v>659</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
         <v>589</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>589</v>
+      </c>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -889,12 +957,16 @@
         <v>836238</v>
       </c>
       <c r="D20" t="n">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>409</v>
+      </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>399</v>
+      </c>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -915,10 +987,16 @@
         <v>359</v>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>359</v>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>359</v>
+      </c>
+      <c r="I21" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -935,12 +1013,16 @@
         <v>836240</v>
       </c>
       <c r="D22" t="n">
+        <v>469</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
         <v>389</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>389</v>
+      </c>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -961,9 +1043,13 @@
         <v>199</v>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>199</v>
+      </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>199</v>
+      </c>
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1019,12 +1105,16 @@
         <v>853101</v>
       </c>
       <c r="D26" t="n">
+        <v>435</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
         <v>429</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>429</v>
+      </c>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1042,13 +1132,19 @@
         <v>853098</v>
       </c>
       <c r="D27" t="n">
+        <v>495</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>489</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>489</v>
+      </c>
+      <c r="I27" t="n">
         <v>349</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1065,12 +1161,16 @@
         <v>850663</v>
       </c>
       <c r="D28" t="n">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>549</v>
+      </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>549</v>
+      </c>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1088,12 +1188,18 @@
         <v>853097</v>
       </c>
       <c r="D29" t="n">
+        <v>295</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
         <v>289</v>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>239</v>
+      </c>
+      <c r="H29" t="n">
+        <v>289</v>
+      </c>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1114,10 +1220,16 @@
         <v>399</v>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>399</v>
+      </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>399</v>
+      </c>
+      <c r="I30" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1134,12 +1246,16 @@
         <v>839428</v>
       </c>
       <c r="D31" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>599</v>
+      </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>599</v>
+      </c>
       <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1160,9 +1276,13 @@
         <v>1299</v>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1299</v>
+      </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1299</v>
+      </c>
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1182,10 +1302,16 @@
       <c r="D33" t="n">
         <v>949</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>799</v>
+      </c>
+      <c r="F33" t="n">
+        <v>949</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>949</v>
+      </c>
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1222,12 +1348,16 @@
         <v>839422</v>
       </c>
       <c r="D35" t="n">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>489</v>
+      </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>449</v>
+      </c>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1248,9 +1378,13 @@
         <v>699</v>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>699</v>
+      </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>699</v>
+      </c>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1271,9 +1405,13 @@
         <v>1729</v>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1729</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1729</v>
+      </c>
       <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1294,9 +1432,13 @@
         <v>929</v>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>929</v>
+      </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>929</v>
+      </c>
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1317,9 +1459,13 @@
         <v>619</v>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>619</v>
+      </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>619</v>
+      </c>
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1340,9 +1486,13 @@
         <v>1269</v>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1269</v>
+      </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>1269</v>
+      </c>
       <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1363,9 +1513,13 @@
         <v>999</v>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>999</v>
+      </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>999</v>
+      </c>
       <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1386,9 +1540,13 @@
         <v>499</v>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>499</v>
+      </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>499</v>
+      </c>
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1406,13 +1564,21 @@
         <v>11255</v>
       </c>
       <c r="D43" t="n">
-        <v>1149</v>
+        <v>1699</v>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1599</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1699</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1599</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1429,12 +1595,18 @@
         <v>355569</v>
       </c>
       <c r="D44" t="n">
-        <v>939</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+        <v>969</v>
+      </c>
+      <c r="E44" t="n">
+        <v>699</v>
+      </c>
+      <c r="F44" t="n">
+        <v>969</v>
+      </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>969</v>
+      </c>
       <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1493,10 +1665,16 @@
         <v>399</v>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>399</v>
+      </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>399</v>
+      </c>
+      <c r="I47" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1516,9 +1694,13 @@
         <v>199</v>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>199</v>
+      </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>199</v>
+      </c>
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1539,9 +1721,13 @@
         <v>179</v>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>179</v>
+      </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>179</v>
+      </c>
       <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1562,9 +1748,13 @@
         <v>249</v>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>249</v>
+      </c>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>249</v>
+      </c>
       <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1601,12 +1791,16 @@
         <v>835363</v>
       </c>
       <c r="D52" t="n">
+        <v>199</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>269</v>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -1624,12 +1818,18 @@
         <v>835366</v>
       </c>
       <c r="D53" t="n">
+        <v>219</v>
+      </c>
+      <c r="E53" t="n">
         <v>179</v>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>219</v>
+      </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>219</v>
+      </c>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1649,11 +1849,21 @@
       <c r="D54" t="n">
         <v>199</v>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>189</v>
+      </c>
+      <c r="F54" t="n">
+        <v>199</v>
+      </c>
+      <c r="G54" t="n">
+        <v>189</v>
+      </c>
+      <c r="H54" t="n">
+        <v>199</v>
+      </c>
+      <c r="I54" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1670,12 +1880,16 @@
         <v>835355</v>
       </c>
       <c r="D55" t="n">
+        <v>189</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
         <v>159</v>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>159</v>
+      </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1696,10 +1910,16 @@
         <v>139</v>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>139</v>
+      </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>139</v>
+      </c>
+      <c r="I56" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1719,9 +1939,13 @@
         <v>449</v>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>449</v>
+      </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>449</v>
+      </c>
       <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -1777,12 +2001,16 @@
         <v>851205</v>
       </c>
       <c r="D60" t="n">
+        <v>519</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
         <v>349</v>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>349</v>
+      </c>
       <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -1800,12 +2028,18 @@
         <v>838603</v>
       </c>
       <c r="D61" t="n">
-        <v>599</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+        <v>589</v>
+      </c>
+      <c r="E61" t="n">
+        <v>429</v>
+      </c>
+      <c r="F61" t="n">
+        <v>589</v>
+      </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>499</v>
+      </c>
       <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1823,12 +2057,16 @@
         <v>838653</v>
       </c>
       <c r="D62" t="n">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>449</v>
+      </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -1846,13 +2084,19 @@
         <v>857761</v>
       </c>
       <c r="D63" t="n">
-        <v>379</v>
+        <v>589</v>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>589</v>
+      </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>589</v>
+      </c>
+      <c r="I63" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1872,9 +2116,13 @@
         <v>449</v>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>449</v>
+      </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>449</v>
+      </c>
       <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -1895,9 +2143,13 @@
         <v>459</v>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>459</v>
+      </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>459</v>
+      </c>
       <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -1915,13 +2167,19 @@
         <v>836326</v>
       </c>
       <c r="D66" t="n">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>569</v>
+      </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>569</v>
+      </c>
+      <c r="I66" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1938,12 +2196,16 @@
         <v>832212</v>
       </c>
       <c r="D67" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>509</v>
+      </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>509</v>
+      </c>
       <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -1964,9 +2226,13 @@
         <v>649</v>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>649</v>
+      </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>649</v>
+      </c>
       <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1986,10 +2252,16 @@
       <c r="D69" t="n">
         <v>209</v>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>199</v>
+      </c>
+      <c r="F69" t="n">
+        <v>209</v>
+      </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>199</v>
+      </c>
       <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2010,9 +2282,13 @@
         <v>399</v>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>399</v>
+      </c>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>399</v>
+      </c>
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2030,12 +2306,18 @@
         <v>838656</v>
       </c>
       <c r="D71" t="n">
+        <v>519</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>499</v>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>479</v>
+      </c>
+      <c r="H71" t="n">
+        <v>499</v>
+      </c>
       <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2056,10 +2338,16 @@
         <v>849</v>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>849</v>
+      </c>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>849</v>
+      </c>
+      <c r="I72" t="n">
+        <v>799</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2076,12 +2364,16 @@
         <v>838664</v>
       </c>
       <c r="D73" t="n">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>339</v>
+      </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>339</v>
+      </c>
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2099,12 +2391,16 @@
         <v>838679</v>
       </c>
       <c r="D74" t="n">
-        <v>459</v>
+        <v>569</v>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>569</v>
+      </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>569</v>
+      </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2124,10 +2420,16 @@
       <c r="D75" t="n">
         <v>299</v>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>239</v>
+      </c>
+      <c r="F75" t="n">
+        <v>299</v>
+      </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>299</v>
+      </c>
       <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2164,12 +2466,16 @@
         <v>857488</v>
       </c>
       <c r="D77" t="n">
-        <v>1999</v>
+        <v>2149</v>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>1899</v>
+      </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>1899</v>
+      </c>
       <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -2190,10 +2496,3859 @@
         <v>549</v>
       </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>549</v>
+      </c>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>549</v>
+      </c>
       <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 1,75L</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2004121218395</v>
+      </c>
+      <c r="D79" t="n">
+        <v>699</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>699</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>699</v>
+      </c>
+      <c r="I79" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 2x1,75L</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2004121218279</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1379</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>1379</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 4x1,75L</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 2,25L</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2004121218291</v>
+      </c>
+      <c r="D82" t="n">
+        <v>879</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>879</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>879</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 0,5L</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2004121216955</v>
+      </c>
+      <c r="D83" t="n">
+        <v>399</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>399</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>399</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 0,33L</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2004121218112</v>
+      </c>
+      <c r="D84" t="n">
+        <v>389</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>389</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>369</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 4x0,33L</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2004121254932</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>1049</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>1049</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 1L</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2004121217240</v>
+      </c>
+      <c r="D86" t="n">
+        <v>519</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>519</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>519</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 6x0,33L</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CCHBC - KINLEY 1L</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2004121284216</v>
+      </c>
+      <c r="D88" t="n">
+        <v>509</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>509</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>509</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CCHBC - KINLEY 1,5L</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2004121218072</v>
+      </c>
+      <c r="D89" t="n">
+        <v>699</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>699</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>699</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PEPSI 1,5L</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2004121255228</v>
+      </c>
+      <c r="D90" t="n">
+        <v>479</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>479</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>479</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SCHWEPPES 1,5L</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2004121223382</v>
+      </c>
+      <c r="D91" t="n">
+        <v>589</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>589</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PEPSI 2L</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2004121254402</v>
+      </c>
+      <c r="D92" t="n">
+        <v>679</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>679</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>679</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PEPSI 0,5L</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2004121223318</v>
+      </c>
+      <c r="D93" t="n">
+        <v>409</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>409</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>409</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 0,3L</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PEPSI 0,33L</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2004121223405</v>
+      </c>
+      <c r="D95" t="n">
+        <v>349</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>349</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>349</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PEPSI 1L</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>XIXO 0,25L</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2004121225420</v>
+      </c>
+      <c r="D97" t="n">
+        <v>199</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>199</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>199</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MÁRKA 0,33L</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MÁRKA 1,5L</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MÁRKA 2L</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2004121259950</v>
+      </c>
+      <c r="D100" t="n">
+        <v>439</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>439</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>439</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MÁRKA 2,5L</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2004121228987</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>499</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GYÖNGY 2L</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2004121229214</v>
+      </c>
+      <c r="D102" t="n">
+        <v>295</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>295</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>295</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>QUEEN 2,5L</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>APENTA 1,5L</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2004121219290</v>
+      </c>
+      <c r="D104" t="n">
+        <v>399</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>399</v>
+      </c>
+      <c r="G104" t="n">
+        <v>269</v>
+      </c>
+      <c r="H104" t="n">
+        <v>399</v>
+      </c>
+      <c r="I104" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY HN 0,33L</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY HN ORANGE 1L</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2004121217159</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>1299</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>1299</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY HN 1L</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2004121217165</v>
+      </c>
+      <c r="D107" t="n">
+        <v>999</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>999</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>999</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY LN 1L</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY  ICE FRUIT 0,5L</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2004121216765</v>
+      </c>
+      <c r="D109" t="n">
+        <v>479</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>479</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>479</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY  ICE FRUIT 1,5L</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2004121216788</v>
+      </c>
+      <c r="D110" t="n">
+        <v>729</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>729</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>729</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SIÓ HN Orange 1L</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SIO HN 1L</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2004010393365</v>
+      </c>
+      <c r="D112" t="n">
+        <v>969</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>969</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>969</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SIO LN 1L</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2005105001570</v>
+      </c>
+      <c r="D113" t="n">
+        <v>649</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>649</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>649</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>HOHES-C 100% Orange 1L</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2005105005480</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>1839</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>1839</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>HOHES-C 100% 1L</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2004003213229</v>
+      </c>
+      <c r="D115" t="n">
+        <v>999</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>999</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>999</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>HEY-HO 25% 1L</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2004020334001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>579</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>HAPPY DAY 100% Orange 1L</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2004003236433</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>1599</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1599</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>HAPPY DAY ÁRPONT1 1L</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2004010445217</v>
+      </c>
+      <c r="D118" t="n">
+        <v>939</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>939</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>939</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RAUCH BRAVO PET 0,5L</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>RAUCH BRAVO PET 1,5L</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>OLYMPOS 1,5L</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2004121219537</v>
+      </c>
+      <c r="D121" t="n">
+        <v>399</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>399</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>399</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA 1,5L</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2004121216857</v>
+      </c>
+      <c r="D122" t="n">
+        <v>199</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>199</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>199</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA 0,5L</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2004121216834</v>
+      </c>
+      <c r="D123" t="n">
+        <v>199</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>199</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>199</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA 1L</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SZENTKIRÁLYI 0,5L</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2004121229750</v>
+      </c>
+      <c r="D125" t="n">
+        <v>185</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>185</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>185</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SZENTKIRÁLYI 1L</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2004121229957</v>
+      </c>
+      <c r="D126" t="n">
+        <v>209</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>209</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>209</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SZENTKIRÁLYI 1,5L</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2004121229934</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>219</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>219</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>THEODORA 1,5L</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2004121229905</v>
+      </c>
+      <c r="D128" t="n">
+        <v>175</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>175</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>175</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NESTLE AQUAREL 1,5L</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2004121229911</v>
+      </c>
+      <c r="D129" t="n">
+        <v>159</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>159</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>159</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MIZSE 1,5L</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2004121233675</v>
+      </c>
+      <c r="D130" t="n">
+        <v>139</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="n">
+        <v>139</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>139</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA EMOTION 1,5L</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2004121217194</v>
+      </c>
+      <c r="D131" t="n">
+        <v>499</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>499</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>499</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA EMOTION 0,5L</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2004121217171</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>309</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>309</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>JANA 0,5L</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2004121234375</v>
+      </c>
+      <c r="D133" t="n">
+        <v>295</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>295</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>295</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>JANA 1,5L</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2004121234461</v>
+      </c>
+      <c r="D134" t="n">
+        <v>519</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>519</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>519</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CCHBC - FUZETEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2004121217793</v>
+      </c>
+      <c r="D135" t="n">
+        <v>589</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>589</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>589</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CCHBC - FUZETEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2004121217770</v>
+      </c>
+      <c r="D136" t="n">
+        <v>439</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>439</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>439</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>MASPEX - NESTEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2004121219606</v>
+      </c>
+      <c r="D137" t="n">
+        <v>599</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="n">
+        <v>599</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>599</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MASPEX - NESTEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2004121219566</v>
+      </c>
+      <c r="D138" t="n">
+        <v>429</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>429</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>429</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>LITPON TEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2004121223480</v>
+      </c>
+      <c r="D139" t="n">
+        <v>469</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>469</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>469</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>LITPON TEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2004121223543</v>
+      </c>
+      <c r="D140" t="n">
+        <v>589</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>589</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>589</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>RAUCH TEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2004121229433</v>
+      </c>
+      <c r="D141" t="n">
+        <v>519</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>519</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>519</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>RAUCH TEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2004121229502</v>
+      </c>
+      <c r="D142" t="n">
+        <v>679</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>679</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>679</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>XIXO 0,25L</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2004121225760</v>
+      </c>
+      <c r="D143" t="n">
+        <v>199</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>199</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>199</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>XIXO 1,5L</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2004121225685</v>
+      </c>
+      <c r="D144" t="n">
+        <v>399</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>399</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>399</v>
+      </c>
+      <c r="I144" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CCHBC - POWERADE 0,5L</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2004121217044</v>
+      </c>
+      <c r="D145" t="n">
+        <v>519</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>519</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>519</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>PRIME 0,5L</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2004121263247</v>
+      </c>
+      <c r="D146" t="n">
+        <v>999</v>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>999</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>999</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CCHBC - BURN 0,25L</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2004121218129</v>
+      </c>
+      <c r="D147" t="n">
+        <v>339</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>339</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>339</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CCHBC - MONSTER 0,5L</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2004121218158</v>
+      </c>
+      <c r="D148" t="n">
+        <v>619</v>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>619</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>619</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>HELL 0,5L</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2004121272772</v>
+      </c>
+      <c r="D149" t="n">
+        <v>449</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>449</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>449</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>HELL 0,25L</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2004121225380</v>
+      </c>
+      <c r="D150" t="n">
+        <v>299</v>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>299</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>299</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>RED BULL 4x0,25L</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2004121254419</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1899</v>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>1899</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>1899</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Tesco</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RED BULL 0,25L</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2004121250239</v>
+      </c>
+      <c r="D152" t="n">
+        <v>549</v>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>549</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>549</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 1,75L</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>600090005</v>
+      </c>
+      <c r="D153" t="n">
+        <v>699</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>699</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>699</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 2x1,75L</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>600096007</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1139</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>1365</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 4x1,75L</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 2,25L</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>600099008</v>
+      </c>
+      <c r="D156" t="n">
+        <v>879</v>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>879</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>879</v>
+      </c>
+      <c r="I156" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 0,5L</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>600055004</v>
+      </c>
+      <c r="D157" t="n">
+        <v>399</v>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>399</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>399</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 0,33L</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>600058005</v>
+      </c>
+      <c r="D158" t="n">
+        <v>369</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>369</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>369</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 4x0,33L</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>600088002</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1047</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G159" t="n">
+        <v>999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1047</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 1L</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>600130008</v>
+      </c>
+      <c r="D160" t="n">
+        <v>519</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>519</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>519</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 6x0,33L</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CCHBC - KINLEY 1L</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CCHBC - KINLEY 1,5L</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>600155001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>699</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>699</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>699</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>PEPSI 1,75L</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PEPSI 1,5L</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>601295003</v>
+      </c>
+      <c r="D165" t="n">
+        <v>479</v>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="n">
+        <v>479</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>479</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SCHWEPPES 1,5L</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PEPSI 2L</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>600874001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>679</v>
+      </c>
+      <c r="E167" t="n">
+        <v>599</v>
+      </c>
+      <c r="F167" t="n">
+        <v>679</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>679</v>
+      </c>
+      <c r="I167" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PEPSI 0,5L</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>601831003</v>
+      </c>
+      <c r="D168" t="n">
+        <v>369</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>369</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>369</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CCHBC - COCA-COLA 0,3L</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>601902000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>279</v>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>279</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>279</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>PEPSI 0,33L</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>601256004</v>
+      </c>
+      <c r="D170" t="n">
+        <v>349</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>349</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>349</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>PEPSI 1L</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>601137006</v>
+      </c>
+      <c r="D171" t="n">
+        <v>489</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>489</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>489</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>XIXO 0,25L</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>601215001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>199</v>
+      </c>
+      <c r="E172" t="n">
+        <v>159</v>
+      </c>
+      <c r="F172" t="n">
+        <v>199</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>199</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>MÁRKA 0,33L</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MÁRKA 1,5L</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MÁRKA 2L</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>602526007</v>
+      </c>
+      <c r="D175" t="n">
+        <v>459</v>
+      </c>
+      <c r="E175" t="n">
+        <v>359</v>
+      </c>
+      <c r="F175" t="n">
+        <v>459</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>459</v>
+      </c>
+      <c r="I175" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>MÁRKA 2,5L</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>GYÖNGY 2L</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>QUEEN 2,5L</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>APENTA 1,5L</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>601850004</v>
+      </c>
+      <c r="D179" t="n">
+        <v>399</v>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="n">
+        <v>399</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>399</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY HN 0,33L</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>317804001</v>
+      </c>
+      <c r="D180" t="n">
+        <v>339</v>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>339</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>339</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY HN ORANGE 1L</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>600081003</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1299</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>1299</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY HN 1L</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>600083007</v>
+      </c>
+      <c r="D182" t="n">
+        <v>999</v>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>999</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>999</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY LN 1L</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY  ICE FRUIT 0,5L</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>600067007</v>
+      </c>
+      <c r="D184" t="n">
+        <v>519</v>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>519</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>519</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CCHBC - CAPPY  ICE FRUIT 1,5L</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>600070007</v>
+      </c>
+      <c r="D185" t="n">
+        <v>699</v>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>699</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>699</v>
+      </c>
+      <c r="I185" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SIÓ HN Orange 1L</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>379632000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>1299</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>1299</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SIO HN 1L</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>379614006</v>
+      </c>
+      <c r="D187" t="n">
+        <v>929</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>929</v>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>929</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SIO LN 1L</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>HOHES-C 100% Orange 1L</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>532654009</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>1839</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>1839</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>HOHES-C 100% 1L</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>520778007</v>
+      </c>
+      <c r="D190" t="n">
+        <v>999</v>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>799</v>
+      </c>
+      <c r="G190" t="n">
+        <v>699</v>
+      </c>
+      <c r="H190" t="n">
+        <v>799</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>HEY-HO 25% 1L</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>429464001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>649</v>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>649</v>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>649</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>HAPPY DAY 100% Orange 1L</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>201201008</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>1599</v>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>1599</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>HAPPY DAY ÁRPONT1 1L</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>40971001</v>
+      </c>
+      <c r="D193" t="n">
+        <v>999</v>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>999</v>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>939</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>RAUCH BRAVO PET 0,5L</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>600025007</v>
+      </c>
+      <c r="D194" t="n">
+        <v>479</v>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>479</v>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>479</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>RAUCH BRAVO PET 1,5L</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>OLYMPOS 1,5L</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>601594007</v>
+      </c>
+      <c r="D196" t="n">
+        <v>399</v>
+      </c>
+      <c r="E196" t="n">
+        <v>349</v>
+      </c>
+      <c r="F196" t="n">
+        <v>399</v>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>399</v>
+      </c>
+      <c r="I196" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA 1,5L</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>600065003</v>
+      </c>
+      <c r="D197" t="n">
+        <v>199</v>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>199</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>199</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA 0,5L</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>600063009</v>
+      </c>
+      <c r="D198" t="n">
+        <v>199</v>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>199</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>199</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA 1L</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>600136000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>289</v>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>289</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>289</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SZENTKIRÁLYI 0,5L</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>601681004</v>
+      </c>
+      <c r="D200" t="n">
+        <v>179</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>179</v>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>179</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SZENTKIRÁLYI 1L</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>601546006</v>
+      </c>
+      <c r="D201" t="n">
+        <v>199</v>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>199</v>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="n">
+        <v>199</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SZENTKIRÁLYI 1,5L</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>600654009</v>
+      </c>
+      <c r="D202" t="n">
+        <v>219</v>
+      </c>
+      <c r="E202" t="n">
+        <v>199</v>
+      </c>
+      <c r="F202" t="n">
+        <v>219</v>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>219</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>THEODORA 1,5L</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>601257001</v>
+      </c>
+      <c r="D203" t="n">
+        <v>169</v>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>169</v>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="n">
+        <v>169</v>
+      </c>
+      <c r="I203" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>NESTLE AQUAREL 1,5L</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>601767005</v>
+      </c>
+      <c r="D204" t="n">
+        <v>159</v>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>159</v>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="n">
+        <v>159</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MIZSE 1,5L</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>601524004</v>
+      </c>
+      <c r="D205" t="n">
+        <v>155</v>
+      </c>
+      <c r="E205" t="n">
+        <v>129</v>
+      </c>
+      <c r="F205" t="n">
+        <v>155</v>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="n">
+        <v>155</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA EMOTION 1,5L</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>600146009</v>
+      </c>
+      <c r="D206" t="n">
+        <v>499</v>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>499</v>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="n">
+        <v>499</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>CCHBC - NATURAQUA EMOTION 0,5L</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>JANA 0,5L</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>JANA 1,5L</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>601710001</v>
+      </c>
+      <c r="D209" t="n">
+        <v>499</v>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>499</v>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="n">
+        <v>499</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>CCHBC - FUZETEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>600108007</v>
+      </c>
+      <c r="D210" t="n">
+        <v>639</v>
+      </c>
+      <c r="E210" t="n">
+        <v>399</v>
+      </c>
+      <c r="F210" t="n">
+        <v>639</v>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>639</v>
+      </c>
+      <c r="I210" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>CCHBC - FUZETEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>600111007</v>
+      </c>
+      <c r="D211" t="n">
+        <v>459</v>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="n">
+        <v>459</v>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="n">
+        <v>459</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MASPEX - NESTEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>600970000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>589</v>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>589</v>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>589</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MASPEX - NESTEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>491418001</v>
+      </c>
+      <c r="D213" t="n">
+        <v>399</v>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="n">
+        <v>399</v>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>399</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>LITPON TEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>601809002</v>
+      </c>
+      <c r="D214" t="n">
+        <v>439</v>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="n">
+        <v>439</v>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="n">
+        <v>439</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>LITPON TEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>601731006</v>
+      </c>
+      <c r="D215" t="n">
+        <v>589</v>
+      </c>
+      <c r="E215" t="n">
+        <v>549</v>
+      </c>
+      <c r="F215" t="n">
+        <v>589</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>589</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>RAUCH TEA 0,5L</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>600021009</v>
+      </c>
+      <c r="D216" t="n">
+        <v>489</v>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="n">
+        <v>489</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>489</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>RAUCH TEA 1,5L</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>600023003</v>
+      </c>
+      <c r="D217" t="n">
+        <v>699</v>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="n">
+        <v>699</v>
+      </c>
+      <c r="G217" t="n">
+        <v>599</v>
+      </c>
+      <c r="H217" t="n">
+        <v>699</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>XIXO 0,25L</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>601305009</v>
+      </c>
+      <c r="D218" t="n">
+        <v>199</v>
+      </c>
+      <c r="E218" t="n">
+        <v>159</v>
+      </c>
+      <c r="F218" t="n">
+        <v>199</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>199</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>XIXO 1,5L</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>601377006</v>
+      </c>
+      <c r="D219" t="n">
+        <v>399</v>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="n">
+        <v>399</v>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>399</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>CCHBC - POWERADE 0,5L</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>600062002</v>
+      </c>
+      <c r="D220" t="n">
+        <v>519</v>
+      </c>
+      <c r="E220" t="n">
+        <v>499</v>
+      </c>
+      <c r="F220" t="n">
+        <v>519</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>519</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>PRIME 0,5L</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>602326003</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>1499</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>CCHBC - BURN 0,25L</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>600072001</v>
+      </c>
+      <c r="D222" t="n">
+        <v>339</v>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="n">
+        <v>339</v>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>339</v>
+      </c>
+      <c r="I222" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>CCHBC - MONSTER 0,5L</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>600084004</v>
+      </c>
+      <c r="D223" t="n">
+        <v>619</v>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="n">
+        <v>619</v>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>619</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>HELL 4x0,25L</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>HELL 0,5L</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>602257000</v>
+      </c>
+      <c r="D225" t="n">
+        <v>449</v>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="n">
+        <v>449</v>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>449</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>HELL 0,25L</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>601516009</v>
+      </c>
+      <c r="D226" t="n">
+        <v>299</v>
+      </c>
+      <c r="E226" t="n">
+        <v>239</v>
+      </c>
+      <c r="F226" t="n">
+        <v>299</v>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="n">
+        <v>299</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Spar</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>RED BULL 0,25L</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>600014001</v>
+      </c>
+      <c r="D227" t="n">
+        <v>599</v>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="n">
+        <v>599</v>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="n">
+        <v>599</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pricetracking_auto.xlsx
+++ b/pricetracking_auto.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\PycharmProjects\CC_PriceTracking_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35134AFB-5D89-4C5F-9B4B-A3797D9A2CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB31129-2CAB-4E44-9FA5-79AA64582DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">auto!$A$1:$I$232</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -52,247 +49,247 @@
     <t>PROMO PRICE (W-2)</t>
   </si>
   <si>
+    <t>Auchan</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 1,75L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 2x1,75L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 4x1,75L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 2,25L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 0,3L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 0,33L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 4x0,33L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 0,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - COCA-COLA 1L</t>
+  </si>
+  <si>
+    <t>CCHBC - KINLEY 1L</t>
+  </si>
+  <si>
+    <t>CCHBC - KINLEY 1,5L</t>
+  </si>
+  <si>
+    <t>PEPSI 2L</t>
+  </si>
+  <si>
+    <t>PEPSI 2x2L</t>
+  </si>
+  <si>
+    <t>PEPSI 4x2L</t>
+  </si>
+  <si>
+    <t>PEPSI 1,5L</t>
+  </si>
+  <si>
+    <t>PEPSI 0,5L</t>
+  </si>
+  <si>
+    <t>PEPSI 0,33L</t>
+  </si>
+  <si>
+    <t>PEPSI 4x0,33L</t>
+  </si>
+  <si>
+    <t>PEPSI 1L</t>
+  </si>
+  <si>
+    <t>SCHWEPPES 1,5L</t>
+  </si>
+  <si>
+    <t>XIXO 0,25L</t>
+  </si>
+  <si>
+    <t>MÁRKA 0,25L</t>
+  </si>
+  <si>
+    <t>MÁRKA 1,5L</t>
+  </si>
+  <si>
+    <t>MÁRKA 2L</t>
+  </si>
+  <si>
+    <t>MÁRKA 2,5L</t>
+  </si>
+  <si>
+    <t>QUEEN 1,5L</t>
+  </si>
+  <si>
+    <t>GYÖNGY 2L</t>
+  </si>
+  <si>
+    <t>APENTA 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - CAPPY HN 0,33L</t>
+  </si>
+  <si>
+    <t>CCHBC - CAPPY HN ORANGE 1L</t>
+  </si>
+  <si>
+    <t>CCHBC - CAPPY HN 1L</t>
+  </si>
+  <si>
+    <t>CCHBC - LEMONADE 0,4L</t>
+  </si>
+  <si>
+    <t>CCHBC - LEMONADE 1,25L</t>
+  </si>
+  <si>
+    <t>CCHBC - CAPPY  ICE FRUIT 0,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - CAPPY  ICE FRUIT 1,5L</t>
+  </si>
+  <si>
+    <t>SIÓ HN Orange 1L</t>
+  </si>
+  <si>
+    <t>SIO HN 1L</t>
+  </si>
+  <si>
+    <t>SIO LN 1L</t>
+  </si>
+  <si>
+    <t>HOHES-C 100% Orange 1L</t>
+  </si>
+  <si>
+    <t>HOHES-C 100% 1L</t>
+  </si>
+  <si>
+    <t>HEY-HO 25% 1L</t>
+  </si>
+  <si>
+    <t>HAPPY DAY 100% Orange 1L</t>
+  </si>
+  <si>
+    <t>HAPPY DAY ÁRPONT1 1L</t>
+  </si>
+  <si>
+    <t>RAUCH BRAVO PET 0,5L</t>
+  </si>
+  <si>
+    <t>RAUCH BRAVO PET 1,5L</t>
+  </si>
+  <si>
+    <t>OLYMPOS 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - NATURAQUA 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - NATURAQUA 0,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - NATURAQUA 1L</t>
+  </si>
+  <si>
+    <t>SZENTKIRÁLYI 0,5L</t>
+  </si>
+  <si>
+    <t>SZENTKIRÁLYI 1L</t>
+  </si>
+  <si>
+    <t>SZENTKIRÁLYI 1,5L</t>
+  </si>
+  <si>
+    <t>THEODORA 1,5L</t>
+  </si>
+  <si>
+    <t>NESTLE AQUAREL 1,5L</t>
+  </si>
+  <si>
+    <t>MIZSE 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - NATURAQUA EMOTION 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - NATURAQUA EMOTION 0,5L</t>
+  </si>
+  <si>
+    <t>JANA 0,5L</t>
+  </si>
+  <si>
+    <t>JANA 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - FUZETEA 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - FUZETEA 0,5L</t>
+  </si>
+  <si>
+    <t>MASPEX - NESTEA 1,5L</t>
+  </si>
+  <si>
+    <t>MASPEX - NESTEA 0,5L</t>
+  </si>
+  <si>
+    <t>LITPON TEA 0,5L</t>
+  </si>
+  <si>
+    <t>LITPON TEA 1,5L</t>
+  </si>
+  <si>
+    <t>RAUCH TEA 0,5L</t>
+  </si>
+  <si>
+    <t>RAUCH TEA 1,5L</t>
+  </si>
+  <si>
+    <t>XIXO 1,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - POWERADE 0,5L</t>
+  </si>
+  <si>
+    <t>PRIME 0,5L</t>
+  </si>
+  <si>
+    <t>CCHBC - BURN 0,25L</t>
+  </si>
+  <si>
+    <t>CCHBC - MONSTER 0,5L</t>
+  </si>
+  <si>
+    <t>HELL 0,25L</t>
+  </si>
+  <si>
+    <t>HELL 0,5L</t>
+  </si>
+  <si>
+    <t>RED BULL 4x0,25L</t>
+  </si>
+  <si>
+    <t>RED BULL 0,25L</t>
+  </si>
+  <si>
     <t>Tesco</t>
   </si>
   <si>
-    <t>CCHBC - COCA-COLA 1,75L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 2x1,75L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 4x1,75L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 2,25L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 0,3L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 0,33L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 4x0,33L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 0,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - COCA-COLA 1L</t>
-  </si>
-  <si>
-    <t>CCHBC - KINLEY 1L</t>
-  </si>
-  <si>
-    <t>CCHBC - KINLEY 1,5L</t>
-  </si>
-  <si>
-    <t>PEPSI 1,5L</t>
-  </si>
-  <si>
-    <t>PEPSI 2L</t>
-  </si>
-  <si>
-    <t>PEPSI 2x2L</t>
-  </si>
-  <si>
-    <t>PEPSI 4x2L</t>
-  </si>
-  <si>
-    <t>PEPSI 0,5L</t>
-  </si>
-  <si>
-    <t>PEPSI 0,33L</t>
-  </si>
-  <si>
-    <t>PEPSI 4x0,33L</t>
-  </si>
-  <si>
-    <t>PEPSI 1L</t>
-  </si>
-  <si>
-    <t>SCHWEPPES 1,5L</t>
-  </si>
-  <si>
-    <t>XIXO 0,25L</t>
-  </si>
-  <si>
-    <t>MÁRKA 0,25L</t>
-  </si>
-  <si>
-    <t>MÁRKA 1,5L</t>
-  </si>
-  <si>
-    <t>MÁRKA 2L</t>
-  </si>
-  <si>
-    <t>MÁRKA 2,5L</t>
-  </si>
-  <si>
-    <t>GYÖNGY 2L</t>
-  </si>
-  <si>
     <t>QUEEN 2,5L</t>
   </si>
   <si>
-    <t>APENTA 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - CAPPY HN 0,33L</t>
-  </si>
-  <si>
-    <t>CCHBC - CAPPY HN ORANGE 1L</t>
-  </si>
-  <si>
-    <t>CCHBC - CAPPY HN 1L</t>
-  </si>
-  <si>
-    <t>CCHBC - LEMONADE 0,4L</t>
-  </si>
-  <si>
-    <t>CCHBC - LEMONADE 1,25L</t>
-  </si>
-  <si>
-    <t>CCHBC - CAPPY  ICE FRUIT 0,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - CAPPY  ICE FRUIT 1,5L</t>
-  </si>
-  <si>
-    <t>SIÓ HN Orange 1L</t>
-  </si>
-  <si>
-    <t>SIO HN 1L</t>
-  </si>
-  <si>
-    <t>SIO LN 1L</t>
-  </si>
-  <si>
-    <t>HOHES-C 100% Orange 1L</t>
-  </si>
-  <si>
-    <t>HOHES-C 100% 1L</t>
-  </si>
-  <si>
-    <t>HEY-HO 25% 1L</t>
-  </si>
-  <si>
-    <t>HAPPY DAY 100% Orange 1L</t>
-  </si>
-  <si>
-    <t>HAPPY DAY ÁRPONT1 1L</t>
-  </si>
-  <si>
-    <t>RAUCH BRAVO PET 0,5L</t>
-  </si>
-  <si>
-    <t>RAUCH BRAVO PET 1,5L</t>
-  </si>
-  <si>
-    <t>OLYMPOS 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - NATURAQUA 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - NATURAQUA 0,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - NATURAQUA 1L</t>
-  </si>
-  <si>
-    <t>SZENTKIRÁLYI 0,5L</t>
-  </si>
-  <si>
-    <t>SZENTKIRÁLYI 1L</t>
-  </si>
-  <si>
-    <t>SZENTKIRÁLYI 1,5L</t>
-  </si>
-  <si>
-    <t>THEODORA 1,5L</t>
-  </si>
-  <si>
-    <t>NESTLE AQUAREL 1,5L</t>
-  </si>
-  <si>
-    <t>MIZSE 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - NATURAQUA EMOTION 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - NATURAQUA EMOTION 0,5L</t>
-  </si>
-  <si>
-    <t>JANA 0,5L</t>
-  </si>
-  <si>
-    <t>JANA 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - FUZETEA 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - FUZETEA 0,5L</t>
-  </si>
-  <si>
-    <t>MASPEX - NESTEA 1,5L</t>
-  </si>
-  <si>
-    <t>MASPEX - NESTEA 0,5L</t>
-  </si>
-  <si>
-    <t>LITPON TEA 0,5L</t>
-  </si>
-  <si>
-    <t>LITPON TEA 1,5L</t>
-  </si>
-  <si>
-    <t>RAUCH TEA 0,5L</t>
-  </si>
-  <si>
-    <t>RAUCH TEA 1,5L</t>
-  </si>
-  <si>
-    <t>XIXO 1,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - POWERADE 0,5L</t>
-  </si>
-  <si>
-    <t>PRIME 0,5L</t>
-  </si>
-  <si>
-    <t>CCHBC - BURN 0,25L</t>
-  </si>
-  <si>
-    <t>CCHBC - MONSTER 0,5L</t>
-  </si>
-  <si>
-    <t>HELL 0,5L</t>
-  </si>
-  <si>
-    <t>HELL 0,25L</t>
-  </si>
-  <si>
-    <t>RED BULL 4x0,25L</t>
-  </si>
-  <si>
-    <t>RED BULL 0,25L</t>
-  </si>
-  <si>
     <t>Spar</t>
   </si>
   <si>
     <t>HELL 4x0,25L</t>
-  </si>
-  <si>
-    <t>Auchan</t>
-  </si>
-  <si>
-    <t>QUEEN 1,5L</t>
   </si>
 </sst>
 </file>
@@ -657,15 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -698,7 +689,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -706,6 +697,9 @@
       <c r="C2">
         <v>839432</v>
       </c>
+      <c r="D2">
+        <v>699</v>
+      </c>
       <c r="F2">
         <v>699</v>
       </c>
@@ -721,7 +715,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -729,6 +723,9 @@
       <c r="C3">
         <v>839435</v>
       </c>
+      <c r="D3">
+        <v>1359</v>
+      </c>
       <c r="F3">
         <v>1349</v>
       </c>
@@ -741,7 +738,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -749,6 +746,9 @@
       <c r="C4">
         <v>839437</v>
       </c>
+      <c r="D4">
+        <v>2519</v>
+      </c>
       <c r="F4">
         <v>2519</v>
       </c>
@@ -758,7 +758,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -766,6 +766,9 @@
       <c r="C5">
         <v>839434</v>
       </c>
+      <c r="D5">
+        <v>879</v>
+      </c>
       <c r="F5">
         <v>879</v>
       </c>
@@ -778,7 +781,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -786,6 +789,9 @@
       <c r="C6">
         <v>838698</v>
       </c>
+      <c r="D6">
+        <v>298</v>
+      </c>
       <c r="F6">
         <v>289</v>
       </c>
@@ -795,7 +801,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -803,6 +809,9 @@
       <c r="C7">
         <v>839430</v>
       </c>
+      <c r="D7">
+        <v>389</v>
+      </c>
       <c r="F7">
         <v>389</v>
       </c>
@@ -812,7 +821,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -820,6 +829,12 @@
       <c r="C8">
         <v>839436</v>
       </c>
+      <c r="D8">
+        <v>1349</v>
+      </c>
+      <c r="E8">
+        <v>1299</v>
+      </c>
       <c r="F8">
         <v>1349</v>
       </c>
@@ -829,7 +844,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -837,6 +852,9 @@
       <c r="C9">
         <v>839431</v>
       </c>
+      <c r="D9">
+        <v>419</v>
+      </c>
       <c r="F9">
         <v>419</v>
       </c>
@@ -846,7 +864,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -854,6 +872,9 @@
       <c r="C10">
         <v>839433</v>
       </c>
+      <c r="D10">
+        <v>489</v>
+      </c>
       <c r="F10">
         <v>479</v>
       </c>
@@ -863,7 +884,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -871,7 +892,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -879,6 +900,9 @@
       <c r="C12">
         <v>838582</v>
       </c>
+      <c r="D12">
+        <v>699</v>
+      </c>
       <c r="F12">
         <v>699</v>
       </c>
@@ -894,14 +918,17 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>836241</v>
       </c>
+      <c r="D13">
+        <v>699</v>
+      </c>
       <c r="F13">
         <v>699</v>
       </c>
@@ -914,30 +941,33 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>836239</v>
       </c>
+      <c r="D16">
+        <v>599</v>
+      </c>
       <c r="F16">
         <v>599</v>
       </c>
@@ -947,7 +977,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -955,6 +985,12 @@
       <c r="C17">
         <v>836238</v>
       </c>
+      <c r="D17">
+        <v>429</v>
+      </c>
+      <c r="E17">
+        <v>389</v>
+      </c>
       <c r="F17">
         <v>429</v>
       </c>
@@ -964,7 +1000,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -972,6 +1008,12 @@
       <c r="C18">
         <v>836237</v>
       </c>
+      <c r="D18">
+        <v>359</v>
+      </c>
+      <c r="E18">
+        <v>349</v>
+      </c>
       <c r="F18">
         <v>359</v>
       </c>
@@ -984,7 +1026,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -992,7 +1034,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1000,6 +1042,9 @@
       <c r="C20">
         <v>836240</v>
       </c>
+      <c r="D20">
+        <v>469</v>
+      </c>
       <c r="F20">
         <v>469</v>
       </c>
@@ -1009,7 +1054,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1017,6 +1062,9 @@
       <c r="C21">
         <v>836317</v>
       </c>
+      <c r="D21">
+        <v>659</v>
+      </c>
       <c r="F21">
         <v>659</v>
       </c>
@@ -1026,7 +1074,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1034,6 +1082,9 @@
       <c r="C22">
         <v>838199</v>
       </c>
+      <c r="D22">
+        <v>199</v>
+      </c>
       <c r="F22">
         <v>199</v>
       </c>
@@ -1043,7 +1094,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1051,7 +1102,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1059,7 +1110,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -1067,6 +1118,9 @@
       <c r="C25">
         <v>853101</v>
       </c>
+      <c r="D25">
+        <v>439</v>
+      </c>
       <c r="F25">
         <v>435</v>
       </c>
@@ -1082,7 +1136,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1090,6 +1144,9 @@
       <c r="C26">
         <v>853098</v>
       </c>
+      <c r="D26">
+        <v>499</v>
+      </c>
       <c r="F26">
         <v>499</v>
       </c>
@@ -1102,14 +1159,20 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>850663</v>
       </c>
+      <c r="D27">
+        <v>549</v>
+      </c>
+      <c r="E27">
+        <v>439</v>
+      </c>
       <c r="F27">
         <v>549</v>
       </c>
@@ -1119,14 +1182,17 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>853097</v>
       </c>
+      <c r="D28">
+        <v>295</v>
+      </c>
       <c r="F28">
         <v>295</v>
       </c>
@@ -1136,7 +1202,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -1144,6 +1210,9 @@
       <c r="C29">
         <v>857856</v>
       </c>
+      <c r="D29">
+        <v>399</v>
+      </c>
       <c r="F29">
         <v>399</v>
       </c>
@@ -1159,7 +1228,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -1167,6 +1236,9 @@
       <c r="C30">
         <v>839428</v>
       </c>
+      <c r="D30">
+        <v>599</v>
+      </c>
       <c r="F30">
         <v>599</v>
       </c>
@@ -1176,7 +1248,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -1184,6 +1256,9 @@
       <c r="C31">
         <v>839406</v>
       </c>
+      <c r="D31">
+        <v>1299</v>
+      </c>
       <c r="F31">
         <v>1299</v>
       </c>
@@ -1193,7 +1268,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -1201,6 +1276,9 @@
       <c r="C32">
         <v>839410</v>
       </c>
+      <c r="D32">
+        <v>998</v>
+      </c>
       <c r="F32">
         <v>969</v>
       </c>
@@ -1213,7 +1291,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -1221,13 +1299,16 @@
       <c r="C33">
         <v>838585</v>
       </c>
+      <c r="D33">
+        <v>499</v>
+      </c>
       <c r="F33">
         <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -1235,13 +1316,16 @@
       <c r="C34">
         <v>838590</v>
       </c>
+      <c r="D34">
+        <v>699</v>
+      </c>
       <c r="F34">
         <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -1249,6 +1333,9 @@
       <c r="C35">
         <v>839422</v>
       </c>
+      <c r="D35">
+        <v>499</v>
+      </c>
       <c r="F35">
         <v>499</v>
       </c>
@@ -1258,7 +1345,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -1266,6 +1353,9 @@
       <c r="C36">
         <v>839419</v>
       </c>
+      <c r="D36">
+        <v>699</v>
+      </c>
       <c r="F36">
         <v>699</v>
       </c>
@@ -1275,7 +1365,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -1283,6 +1373,9 @@
       <c r="C37">
         <v>746198</v>
       </c>
+      <c r="D37">
+        <v>1729</v>
+      </c>
       <c r="F37">
         <v>1729</v>
       </c>
@@ -1292,7 +1385,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -1300,6 +1393,9 @@
       <c r="C38">
         <v>746196</v>
       </c>
+      <c r="D38">
+        <v>999</v>
+      </c>
       <c r="F38">
         <v>999</v>
       </c>
@@ -1312,7 +1408,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
@@ -1320,6 +1416,9 @@
       <c r="C39">
         <v>689495</v>
       </c>
+      <c r="D39">
+        <v>649</v>
+      </c>
       <c r="F39">
         <v>649</v>
       </c>
@@ -1329,7 +1428,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
@@ -1337,6 +1436,9 @@
       <c r="C40">
         <v>230021</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -1346,7 +1448,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
@@ -1354,6 +1456,9 @@
       <c r="C41">
         <v>418409</v>
       </c>
+      <c r="D41">
+        <v>1069</v>
+      </c>
       <c r="F41">
         <v>999</v>
       </c>
@@ -1369,7 +1474,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -1377,6 +1482,9 @@
       <c r="C42">
         <v>918956</v>
       </c>
+      <c r="D42">
+        <v>499</v>
+      </c>
       <c r="F42">
         <v>499</v>
       </c>
@@ -1386,7 +1494,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -1394,6 +1502,12 @@
       <c r="C43">
         <v>11255</v>
       </c>
+      <c r="D43">
+        <v>1699</v>
+      </c>
+      <c r="E43">
+        <v>1599</v>
+      </c>
       <c r="F43">
         <v>1699</v>
       </c>
@@ -1406,7 +1520,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
@@ -1414,6 +1528,9 @@
       <c r="C44">
         <v>355569</v>
       </c>
+      <c r="D44">
+        <v>979</v>
+      </c>
       <c r="F44">
         <v>979</v>
       </c>
@@ -1423,7 +1540,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -1431,7 +1548,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
@@ -1439,7 +1556,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
@@ -1447,6 +1564,9 @@
       <c r="C47">
         <v>857788</v>
       </c>
+      <c r="D47">
+        <v>399</v>
+      </c>
       <c r="F47">
         <v>399</v>
       </c>
@@ -1459,7 +1579,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -1467,6 +1587,12 @@
       <c r="C48">
         <v>839393</v>
       </c>
+      <c r="D48">
+        <v>199</v>
+      </c>
+      <c r="E48">
+        <v>159</v>
+      </c>
       <c r="F48">
         <v>199</v>
       </c>
@@ -1482,7 +1608,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
@@ -1490,6 +1616,9 @@
       <c r="C49">
         <v>839392</v>
       </c>
+      <c r="D49">
+        <v>189</v>
+      </c>
       <c r="F49">
         <v>189</v>
       </c>
@@ -1499,7 +1628,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
@@ -1507,6 +1636,9 @@
       <c r="C50">
         <v>839394</v>
       </c>
+      <c r="D50">
+        <v>288</v>
+      </c>
       <c r="F50">
         <v>279</v>
       </c>
@@ -1516,7 +1648,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
@@ -1524,13 +1656,16 @@
       <c r="C51">
         <v>835364</v>
       </c>
+      <c r="D51">
+        <v>189</v>
+      </c>
       <c r="F51">
         <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
@@ -1538,6 +1673,9 @@
       <c r="C52">
         <v>835363</v>
       </c>
+      <c r="D52">
+        <v>299</v>
+      </c>
       <c r="F52">
         <v>299</v>
       </c>
@@ -1547,7 +1685,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
@@ -1555,6 +1693,9 @@
       <c r="C53">
         <v>835366</v>
       </c>
+      <c r="D53">
+        <v>239</v>
+      </c>
       <c r="F53">
         <v>239</v>
       </c>
@@ -1564,7 +1705,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -1572,6 +1713,9 @@
       <c r="C54">
         <v>835364</v>
       </c>
+      <c r="D54">
+        <v>189</v>
+      </c>
       <c r="F54">
         <v>189</v>
       </c>
@@ -1581,7 +1725,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
@@ -1589,6 +1733,9 @@
       <c r="C55">
         <v>835355</v>
       </c>
+      <c r="D55">
+        <v>189</v>
+      </c>
       <c r="F55">
         <v>189</v>
       </c>
@@ -1598,7 +1745,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -1606,6 +1753,12 @@
       <c r="C56">
         <v>850675</v>
       </c>
+      <c r="D56">
+        <v>149</v>
+      </c>
+      <c r="E56">
+        <v>119</v>
+      </c>
       <c r="F56">
         <v>149</v>
       </c>
@@ -1615,7 +1768,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -1623,6 +1776,9 @@
       <c r="C57">
         <v>839404</v>
       </c>
+      <c r="D57">
+        <v>489</v>
+      </c>
       <c r="F57">
         <v>489</v>
       </c>
@@ -1632,7 +1788,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
@@ -1640,7 +1796,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
@@ -1648,7 +1804,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
@@ -1656,6 +1812,12 @@
       <c r="C60">
         <v>851205</v>
       </c>
+      <c r="D60">
+        <v>519</v>
+      </c>
+      <c r="E60">
+        <v>518</v>
+      </c>
       <c r="F60">
         <v>519</v>
       </c>
@@ -1665,7 +1827,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -1673,6 +1835,12 @@
       <c r="C61">
         <v>838603</v>
       </c>
+      <c r="D61">
+        <v>599</v>
+      </c>
+      <c r="E61">
+        <v>589</v>
+      </c>
       <c r="F61">
         <v>599</v>
       </c>
@@ -1685,7 +1853,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
@@ -1693,6 +1861,9 @@
       <c r="C62">
         <v>838653</v>
       </c>
+      <c r="D62">
+        <v>459</v>
+      </c>
       <c r="F62">
         <v>459</v>
       </c>
@@ -1702,7 +1873,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
@@ -1710,6 +1881,12 @@
       <c r="C63">
         <v>857761</v>
       </c>
+      <c r="D63">
+        <v>599</v>
+      </c>
+      <c r="E63">
+        <v>589</v>
+      </c>
       <c r="F63">
         <v>599</v>
       </c>
@@ -1722,7 +1899,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
@@ -1730,6 +1907,9 @@
       <c r="C64">
         <v>857760</v>
       </c>
+      <c r="D64">
+        <v>449</v>
+      </c>
       <c r="F64">
         <v>449</v>
       </c>
@@ -1739,7 +1919,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
@@ -1747,6 +1927,12 @@
       <c r="C65">
         <v>836330</v>
       </c>
+      <c r="D65">
+        <v>469</v>
+      </c>
+      <c r="E65">
+        <v>419</v>
+      </c>
       <c r="F65">
         <v>469</v>
       </c>
@@ -1756,7 +1942,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
@@ -1764,6 +1950,9 @@
       <c r="C66">
         <v>836326</v>
       </c>
+      <c r="D66">
+        <v>619</v>
+      </c>
       <c r="F66">
         <v>619</v>
       </c>
@@ -1773,7 +1962,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
@@ -1781,6 +1970,9 @@
       <c r="C67">
         <v>832212</v>
       </c>
+      <c r="D67">
+        <v>509</v>
+      </c>
       <c r="F67">
         <v>509</v>
       </c>
@@ -1790,7 +1982,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
@@ -1798,6 +1990,9 @@
       <c r="C68">
         <v>832218</v>
       </c>
+      <c r="D68">
+        <v>675</v>
+      </c>
       <c r="F68">
         <v>669</v>
       </c>
@@ -1807,7 +2002,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
@@ -1815,6 +2010,12 @@
       <c r="C69">
         <v>838207</v>
       </c>
+      <c r="D69">
+        <v>209</v>
+      </c>
+      <c r="E69">
+        <v>199</v>
+      </c>
       <c r="F69">
         <v>209</v>
       </c>
@@ -1830,7 +2031,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -1838,6 +2039,9 @@
       <c r="C70">
         <v>839505</v>
       </c>
+      <c r="D70">
+        <v>399</v>
+      </c>
       <c r="F70">
         <v>399</v>
       </c>
@@ -1847,7 +2051,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
@@ -1855,6 +2059,12 @@
       <c r="C71">
         <v>838656</v>
       </c>
+      <c r="D71">
+        <v>529</v>
+      </c>
+      <c r="E71">
+        <v>515</v>
+      </c>
       <c r="F71">
         <v>529</v>
       </c>
@@ -1867,7 +2077,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -1875,6 +2085,9 @@
       <c r="C72">
         <v>799153</v>
       </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
       <c r="F72">
         <v>0</v>
       </c>
@@ -1884,7 +2097,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
@@ -1892,6 +2105,12 @@
       <c r="C73">
         <v>838664</v>
       </c>
+      <c r="D73">
+        <v>359</v>
+      </c>
+      <c r="E73">
+        <v>339</v>
+      </c>
       <c r="F73">
         <v>359</v>
       </c>
@@ -1907,7 +2126,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -1915,6 +2134,9 @@
       <c r="C74">
         <v>838679</v>
       </c>
+      <c r="D74">
+        <v>615</v>
+      </c>
       <c r="F74">
         <v>0</v>
       </c>
@@ -1924,14 +2146,17 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75">
         <v>838232</v>
       </c>
+      <c r="D75">
+        <v>299</v>
+      </c>
       <c r="F75">
         <v>299</v>
       </c>
@@ -1947,15 +2172,15 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
@@ -1963,6 +2188,12 @@
       <c r="C77">
         <v>857488</v>
       </c>
+      <c r="D77">
+        <v>2149</v>
+      </c>
+      <c r="E77">
+        <v>1898</v>
+      </c>
       <c r="F77">
         <v>2149</v>
       </c>
@@ -1972,7 +2203,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
@@ -1980,6 +2211,9 @@
       <c r="C78">
         <v>852822</v>
       </c>
+      <c r="D78">
+        <v>549</v>
+      </c>
       <c r="F78">
         <v>549</v>
       </c>
@@ -1995,7 +2229,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2018,7 +2252,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -2038,7 +2272,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -2046,7 +2280,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
@@ -2066,7 +2300,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -2083,7 +2317,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -2103,7 +2337,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -2123,7 +2357,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>17</v>
@@ -2143,7 +2377,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
@@ -2169,7 +2403,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
@@ -2189,7 +2423,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -2209,10 +2443,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C90">
         <v>2004121255228</v>
@@ -2229,10 +2463,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>2004121254402</v>
@@ -2249,23 +2483,23 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -2285,7 +2519,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -2305,7 +2539,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -2322,7 +2556,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
@@ -2330,7 +2564,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
         <v>29</v>
@@ -2350,7 +2584,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
@@ -2370,7 +2604,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -2387,7 +2621,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
         <v>32</v>
@@ -2395,7 +2629,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
         <v>33</v>
@@ -2415,7 +2649,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
         <v>34</v>
@@ -2435,10 +2669,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C104">
         <v>2004121229214</v>
@@ -2455,15 +2689,15 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -2489,7 +2723,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -2506,7 +2740,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
         <v>39</v>
@@ -2526,7 +2760,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B109" t="s">
         <v>40</v>
@@ -2546,7 +2780,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -2563,7 +2797,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
         <v>42</v>
@@ -2580,7 +2814,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
@@ -2600,7 +2834,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
         <v>44</v>
@@ -2620,7 +2854,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B114" t="s">
         <v>45</v>
@@ -2637,7 +2871,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -2657,7 +2891,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
         <v>47</v>
@@ -2677,7 +2911,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -2697,7 +2931,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
         <v>49</v>
@@ -2717,7 +2951,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B119" t="s">
         <v>50</v>
@@ -2737,7 +2971,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
         <v>51</v>
@@ -2757,7 +2991,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
         <v>52</v>
@@ -2777,7 +3011,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
         <v>53</v>
@@ -2785,7 +3019,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B123" t="s">
         <v>54</v>
@@ -2793,7 +3027,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B124" t="s">
         <v>55</v>
@@ -2813,7 +3047,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B125" t="s">
         <v>56</v>
@@ -2839,7 +3073,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
         <v>57</v>
@@ -2859,7 +3093,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B127" t="s">
         <v>58</v>
@@ -2867,7 +3101,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B128" t="s">
         <v>59</v>
@@ -2887,7 +3121,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B129" t="s">
         <v>60</v>
@@ -2907,7 +3141,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -2933,7 +3167,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B131" t="s">
         <v>62</v>
@@ -2953,7 +3187,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B132" t="s">
         <v>63</v>
@@ -2973,7 +3207,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B133" t="s">
         <v>64</v>
@@ -2993,7 +3227,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B134" t="s">
         <v>65</v>
@@ -3019,7 +3253,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B135" t="s">
         <v>66</v>
@@ -3039,7 +3273,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B136" t="s">
         <v>67</v>
@@ -3059,7 +3293,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
         <v>68</v>
@@ -3079,7 +3313,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
         <v>69</v>
@@ -3099,7 +3333,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B139" t="s">
         <v>70</v>
@@ -3119,7 +3353,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B140" t="s">
         <v>71</v>
@@ -3139,7 +3373,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B141" t="s">
         <v>72</v>
@@ -3159,7 +3393,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B142" t="s">
         <v>73</v>
@@ -3179,7 +3413,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B143" t="s">
         <v>74</v>
@@ -3205,7 +3439,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B144" t="s">
         <v>75</v>
@@ -3225,7 +3459,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B145" t="s">
         <v>76</v>
@@ -3245,7 +3479,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B146" t="s">
         <v>30</v>
@@ -3265,7 +3499,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B147" t="s">
         <v>77</v>
@@ -3288,7 +3522,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B148" t="s">
         <v>78</v>
@@ -3308,7 +3542,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B149" t="s">
         <v>79</v>
@@ -3328,7 +3562,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B150" t="s">
         <v>80</v>
@@ -3348,7 +3582,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B151" t="s">
         <v>81</v>
@@ -3368,10 +3602,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C152">
         <v>2004121272772</v>
@@ -3388,10 +3622,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C153">
         <v>2004121225380</v>
@@ -3411,7 +3645,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B154" t="s">
         <v>84</v>
@@ -3431,7 +3665,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B155" t="s">
         <v>85</v>
@@ -3451,7 +3685,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -3471,7 +3705,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -3494,7 +3728,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -3502,7 +3736,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
@@ -3525,7 +3759,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B160" t="s">
         <v>14</v>
@@ -3545,7 +3779,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
@@ -3565,7 +3799,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
@@ -3588,7 +3822,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B163" t="s">
         <v>17</v>
@@ -3608,7 +3842,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B164" t="s">
         <v>18</v>
@@ -3628,7 +3862,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B165" t="s">
         <v>19</v>
@@ -3648,7 +3882,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
@@ -3668,10 +3902,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C167">
         <v>601295003</v>
@@ -3691,10 +3925,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C168">
         <v>600874001</v>
@@ -3711,23 +3945,23 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B171" t="s">
         <v>25</v>
@@ -3747,7 +3981,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B172" t="s">
         <v>26</v>
@@ -3770,7 +4004,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B173" t="s">
         <v>27</v>
@@ -3787,7 +4021,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B174" t="s">
         <v>28</v>
@@ -3807,7 +4041,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B175" t="s">
         <v>29</v>
@@ -3827,7 +4061,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B176" t="s">
         <v>30</v>
@@ -3850,7 +4084,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B177" t="s">
         <v>31</v>
@@ -3858,7 +4092,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B178" t="s">
         <v>32</v>
@@ -3866,7 +4100,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B179" t="s">
         <v>33</v>
@@ -3889,7 +4123,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B180" t="s">
         <v>34</v>
@@ -3897,23 +4131,23 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B183" t="s">
         <v>37</v>
@@ -3936,7 +4170,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B184" t="s">
         <v>38</v>
@@ -3956,7 +4190,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B185" t="s">
         <v>39</v>
@@ -3976,7 +4210,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B186" t="s">
         <v>40</v>
@@ -3999,7 +4233,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B187" t="s">
         <v>41</v>
@@ -4016,7 +4250,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B188" t="s">
         <v>42</v>
@@ -4033,7 +4267,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B189" t="s">
         <v>43</v>
@@ -4053,7 +4287,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B190" t="s">
         <v>44</v>
@@ -4073,7 +4307,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B191" t="s">
         <v>45</v>
@@ -4093,7 +4327,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B192" t="s">
         <v>46</v>
@@ -4113,7 +4347,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B193" t="s">
         <v>47</v>
@@ -4130,7 +4364,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B194" t="s">
         <v>48</v>
@@ -4150,7 +4384,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B195" t="s">
         <v>49</v>
@@ -4170,7 +4404,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B196" t="s">
         <v>50</v>
@@ -4190,7 +4424,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
         <v>51</v>
@@ -4210,7 +4444,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B198" t="s">
         <v>52</v>
@@ -4230,7 +4464,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B199" t="s">
         <v>53</v>
@@ -4250,7 +4484,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B200" t="s">
         <v>54</v>
@@ -4258,7 +4492,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B201" t="s">
         <v>55</v>
@@ -4281,7 +4515,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B202" t="s">
         <v>56</v>
@@ -4310,7 +4544,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B203" t="s">
         <v>57</v>
@@ -4330,7 +4564,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B204" t="s">
         <v>58</v>
@@ -4350,7 +4584,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B205" t="s">
         <v>59</v>
@@ -4370,7 +4604,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B206" t="s">
         <v>60</v>
@@ -4390,7 +4624,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
         <v>61</v>
@@ -4413,7 +4647,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B208" t="s">
         <v>62</v>
@@ -4433,7 +4667,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B209" t="s">
         <v>63</v>
@@ -4453,7 +4687,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B210" t="s">
         <v>64</v>
@@ -4473,7 +4707,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B211" t="s">
         <v>65</v>
@@ -4493,7 +4727,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B212" t="s">
         <v>66</v>
@@ -4501,7 +4735,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B213" t="s">
         <v>67</v>
@@ -4509,7 +4743,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B214" t="s">
         <v>68</v>
@@ -4529,7 +4763,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B215" t="s">
         <v>69</v>
@@ -4552,7 +4786,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B216" t="s">
         <v>70</v>
@@ -4572,7 +4806,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B217" t="s">
         <v>71</v>
@@ -4595,7 +4829,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B218" t="s">
         <v>72</v>
@@ -4615,7 +4849,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B219" t="s">
         <v>73</v>
@@ -4635,7 +4869,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B220" t="s">
         <v>74</v>
@@ -4655,7 +4889,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B221" t="s">
         <v>75</v>
@@ -4675,7 +4909,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B222" t="s">
         <v>76</v>
@@ -4695,7 +4929,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B223" t="s">
         <v>30</v>
@@ -4718,7 +4952,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B224" t="s">
         <v>77</v>
@@ -4741,7 +4975,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B225" t="s">
         <v>78</v>
@@ -4764,7 +4998,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B226" t="s">
         <v>79</v>
@@ -4787,7 +5021,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B227" t="s">
         <v>80</v>
@@ -4813,7 +5047,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B228" t="s">
         <v>81</v>
@@ -4833,18 +5067,18 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B229" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B230" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C230">
         <v>602257000</v>
@@ -4864,10 +5098,10 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B231" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C231">
         <v>601516009</v>
@@ -4887,7 +5121,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B232" t="s">
         <v>85</v>
